--- a/opm_hero_property/heroes/49.xlsx
+++ b/opm_hero_property/heroes/49.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11049</v>
       </c>
       <c r="D4" t="n">
-        <v>11049</v>
+        <v>11786</v>
       </c>
       <c r="E4" t="n">
         <v>255</v>
@@ -1304,7 +1305,7 @@
         <v>12237</v>
       </c>
       <c r="D5" t="n">
-        <v>12237</v>
+        <v>13810</v>
       </c>
       <c r="E5" t="n">
         <v>383</v>
@@ -1411,7 +1412,7 @@
         <v>13635</v>
       </c>
       <c r="D6" t="n">
-        <v>13635</v>
+        <v>16191</v>
       </c>
       <c r="E6" t="n">
         <v>524</v>
@@ -1518,7 +1519,7 @@
         <v>15243</v>
       </c>
       <c r="D7" t="n">
-        <v>15243</v>
+        <v>21163</v>
       </c>
       <c r="E7" t="n">
         <v>983</v>
@@ -1625,7 +1626,7 @@
         <v>17061</v>
       </c>
       <c r="D8" t="n">
-        <v>17061</v>
+        <v>28039</v>
       </c>
       <c r="E8" t="n">
         <v>1456</v>
@@ -1732,7 +1733,7 @@
         <v>19158</v>
       </c>
       <c r="D9" t="n">
-        <v>19158</v>
+        <v>37296</v>
       </c>
       <c r="E9" t="n">
         <v>1922</v>
@@ -1839,7 +1840,7 @@
         <v>20276</v>
       </c>
       <c r="D10" t="n">
-        <v>20276</v>
+        <v>45006</v>
       </c>
       <c r="E10" t="n">
         <v>2272</v>
@@ -1946,7 +1947,7 @@
         <v>21605</v>
       </c>
       <c r="D11" t="n">
-        <v>21605</v>
+        <v>54472</v>
       </c>
       <c r="E11" t="n">
         <v>2650</v>
@@ -2053,7 +2054,7 @@
         <v>24401</v>
       </c>
       <c r="D12" t="n">
-        <v>24401</v>
+        <v>71320</v>
       </c>
       <c r="E12" t="n">
         <v>3262</v>
@@ -2160,7 +2161,7 @@
         <v>24960</v>
       </c>
       <c r="D13" t="n">
-        <v>24960</v>
+        <v>73701</v>
       </c>
       <c r="E13" t="n">
         <v>3670</v>
@@ -2267,7 +2268,7 @@
         <v>25520</v>
       </c>
       <c r="D14" t="n">
-        <v>25520</v>
+        <v>76082</v>
       </c>
       <c r="E14" t="n">
         <v>4078</v>
@@ -2374,7 +2375,7 @@
         <v>26079</v>
       </c>
       <c r="D15" t="n">
-        <v>26079</v>
+        <v>78464</v>
       </c>
       <c r="E15" t="n">
         <v>4485</v>
@@ -2481,7 +2482,7 @@
         <v>26638</v>
       </c>
       <c r="D16" t="n">
-        <v>26638</v>
+        <v>80845</v>
       </c>
       <c r="E16" t="n">
         <v>4893</v>
@@ -2588,7 +2589,7 @@
         <v>27197</v>
       </c>
       <c r="D17" t="n">
-        <v>27197</v>
+        <v>83226</v>
       </c>
       <c r="E17" t="n">
         <v>5301</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>49</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>28920.6015312</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5532.4809355</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2028.6751</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1150</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>49</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>40363.473078</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7892.6517522</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3168.443</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1150</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>49</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>72418.3687584</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13762.9133</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6966.468</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1150</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>49</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>72418.3687584</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13762.9133</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6966.468</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1150</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>670</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>49</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>67589.5037664</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12218.3843</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6966.468</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>670</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>49</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>264290.824848</v>
+      </c>
+      <c r="U7" t="n">
+        <v>47543.760632</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30797.924</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>49</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>242176.786608</v>
+      </c>
+      <c r="U8" t="n">
+        <v>41071.246472</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30797.924</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>49</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>249548.132688</v>
+      </c>
+      <c r="U9" t="n">
+        <v>43228.751192</v>
+      </c>
+      <c r="V9" t="n">
+        <v>30797.924</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X9" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>49</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>256919.478768</v>
+      </c>
+      <c r="U10" t="n">
+        <v>45386.255912</v>
+      </c>
+      <c r="V10" t="n">
+        <v>30797.924</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1220</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>49</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>264290.824848</v>
+      </c>
+      <c r="U11" t="n">
+        <v>47543.760632</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30797.924</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>49</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>264290.824848</v>
+      </c>
+      <c r="U12" t="n">
+        <v>47543.760632</v>
+      </c>
+      <c r="V12" t="n">
+        <v>30797.924</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1220</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>49</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>390807.5996992</v>
+      </c>
+      <c r="U13" t="n">
+        <v>70730.60657599999</v>
+      </c>
+      <c r="V13" t="n">
+        <v>52558.2236</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2440</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1360</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>49</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>390807.5996992</v>
+      </c>
+      <c r="U14" t="n">
+        <v>70730.60657599999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>52558.2236</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1430</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>49</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>932845.3998892</v>
+      </c>
+      <c r="U15" t="n">
+        <v>172673.6982792</v>
+      </c>
+      <c r="V15" t="n">
+        <v>150961.3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1710</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>49</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>4903528.8442792</v>
+      </c>
+      <c r="U16" t="n">
+        <v>896388.2638157</v>
+      </c>
+      <c r="V16" t="n">
+        <v>751093.1102</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2270</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>49</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8011533.9862436</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1465495.8325403</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1222408.9864</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>4260</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>49</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>227184.0931496</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41862.75542760001</v>
+      </c>
+      <c r="V18" t="n">
+        <v>28009.8248</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>670</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>49</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>300619.5453104</v>
+      </c>
+      <c r="U19" t="n">
+        <v>54924.210419</v>
+      </c>
+      <c r="V19" t="n">
+        <v>37982.3456</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X19" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1220</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>49</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>382798.803152</v>
+      </c>
+      <c r="U20" t="n">
+        <v>69193.82250770001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>52212.02800000001</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1220</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>49</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>434988.0849184</v>
+      </c>
+      <c r="U21" t="n">
+        <v>81996.599248</v>
+      </c>
+      <c r="V21" t="n">
+        <v>60366.6902</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1430</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>49</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>499946.16948</v>
+      </c>
+      <c r="U22" t="n">
+        <v>98965.3985004</v>
+      </c>
+      <c r="V22" t="n">
+        <v>74496.2605</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1710</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>49</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>632907.9276884</v>
+      </c>
+      <c r="U23" t="n">
+        <v>133719.9209209</v>
+      </c>
+      <c r="V23" t="n">
+        <v>103075.3806</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2270</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/49.xlsx
+++ b/opm_hero_property/heroes/49.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>28920.6015312</v>
+        <v>5038405.8442792</v>
       </c>
       <c r="U2" t="n">
-        <v>5532.4809355</v>
+        <v>920116.2638157</v>
       </c>
       <c r="V2" t="n">
-        <v>2028.6751</v>
+        <v>772933.1102</v>
       </c>
       <c r="W2" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X2" t="n">
-        <v>1150</v>
+        <v>1470</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1200</v>
+        <v>3350</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>2270</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11827272.57594</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1419083.12231753</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15847673.94825753</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>40363.473078</v>
+        <v>632907.9276884</v>
       </c>
       <c r="U3" t="n">
-        <v>7892.6517522</v>
+        <v>133719.9209209</v>
       </c>
       <c r="V3" t="n">
-        <v>3168.443</v>
+        <v>103075.3806</v>
       </c>
       <c r="W3" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X3" t="n">
-        <v>1150</v>
+        <v>1470</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1200</v>
+        <v>3350</v>
       </c>
       <c r="AA3" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>2270</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1341387.40068</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>160933.91981261</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2164359.32049261</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>72418.3687584</v>
+        <v>7521.1188</v>
       </c>
       <c r="U4" t="n">
-        <v>13762.9133</v>
+        <v>1598.8315</v>
       </c>
       <c r="V4" t="n">
-        <v>6966.468</v>
+        <v>620.6750999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>1150</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19385.287975</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23935.237975</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>72418.3687584</v>
+        <v>20143.6095</v>
       </c>
       <c r="U5" t="n">
-        <v>13762.9133</v>
+        <v>3968.1666</v>
       </c>
       <c r="V5" t="n">
-        <v>6966.468</v>
+        <v>1927.443</v>
       </c>
       <c r="W5" t="n">
-        <v>1500</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>1150</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1270</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>670</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49500.85629</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>61489.20629</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>67589.5037664</v>
+        <v>56428.5416</v>
       </c>
       <c r="U6" t="n">
-        <v>12218.3843</v>
+        <v>10226.9</v>
       </c>
       <c r="V6" t="n">
-        <v>6966.468</v>
+        <v>6215.468</v>
       </c>
       <c r="W6" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1270</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>670</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>119342.2926</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9356.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>167705.5926</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>264290.824848</v>
+        <v>56428.5416</v>
       </c>
       <c r="U7" t="n">
-        <v>47543.760632</v>
+        <v>10226.9</v>
       </c>
       <c r="V7" t="n">
-        <v>30797.924</v>
+        <v>6215.468</v>
       </c>
       <c r="W7" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X7" t="n">
-        <v>1470</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2370</v>
+        <v>970</v>
       </c>
       <c r="AA7" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB7" t="n">
-        <v>1290</v>
+        <v>520</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>119342.2926</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>167887.5926</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>242176.786608</v>
+        <v>56589.5037664</v>
       </c>
       <c r="U8" t="n">
-        <v>41071.246472</v>
+        <v>10278.3843</v>
       </c>
       <c r="V8" t="n">
-        <v>30797.924</v>
+        <v>6215.468</v>
       </c>
       <c r="W8" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2370</v>
+        <v>970</v>
       </c>
       <c r="AA8" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB8" t="n">
-        <v>1290</v>
+        <v>520</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>119342.2926</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>516.2038364</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>168403.7964364</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,27 +7776,27 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>249548.132688</v>
+        <v>240650.652</v>
       </c>
       <c r="U9" t="n">
-        <v>43228.751192</v>
+        <v>41012.496</v>
       </c>
       <c r="V9" t="n">
-        <v>30797.924</v>
+        <v>30924.924</v>
       </c>
       <c r="W9" t="n">
         <v>2300</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>720</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>545495.1873999999</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>713770.1874000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,27 +7911,27 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>256919.478768</v>
+        <v>241387.786608</v>
       </c>
       <c r="U10" t="n">
-        <v>45386.255912</v>
+        <v>41228.246472</v>
       </c>
       <c r="V10" t="n">
-        <v>30797.924</v>
+        <v>30924.924</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
       </c>
       <c r="X10" t="n">
-        <v>1220</v>
+        <v>720</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>545495.1873999999</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2225.8128648</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>715996.0002648</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,27 +8046,27 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>264290.824848</v>
+        <v>248759.132688</v>
       </c>
       <c r="U11" t="n">
-        <v>47543.760632</v>
+        <v>43385.751192</v>
       </c>
       <c r="V11" t="n">
-        <v>30797.924</v>
+        <v>30924.924</v>
       </c>
       <c r="W11" t="n">
         <v>2300</v>
       </c>
       <c r="X11" t="n">
-        <v>1470</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>545495.1873999999</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>24896.4415128</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>738666.6289128</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,39 +8181,39 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>264290.824848</v>
+        <v>256130.478768</v>
       </c>
       <c r="U12" t="n">
-        <v>47543.760632</v>
+        <v>45543.255912</v>
       </c>
       <c r="V12" t="n">
-        <v>30797.924</v>
+        <v>30924.924</v>
       </c>
       <c r="W12" t="n">
         <v>2300</v>
       </c>
       <c r="X12" t="n">
-        <v>1470</v>
+        <v>1220</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2300</v>
+        <v>2370</v>
       </c>
       <c r="AA12" t="n">
         <v>3600</v>
       </c>
       <c r="AB12" t="n">
-        <v>1220</v>
+        <v>1290</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>545495.1873999999</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>47567.0701608</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>761337.2575607999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,17 +8320,17 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>390807.5996992</v>
+        <v>263501.824848</v>
       </c>
       <c r="U13" t="n">
-        <v>70730.60657599999</v>
+        <v>47700.760632</v>
       </c>
       <c r="V13" t="n">
-        <v>52558.2236</v>
+        <v>30924.924</v>
       </c>
       <c r="W13" t="n">
         <v>2300</v>
@@ -8038,37 +8342,61 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2440</v>
+        <v>2370</v>
       </c>
       <c r="AA13" t="n">
         <v>3600</v>
       </c>
       <c r="AB13" t="n">
-        <v>1360</v>
+        <v>1290</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>545495.1873999999</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>70237.69880880001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>784007.8862087999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,17 +8455,17 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>390807.5996992</v>
+        <v>263501.824848</v>
       </c>
       <c r="U14" t="n">
-        <v>70730.60657599999</v>
+        <v>47700.760632</v>
       </c>
       <c r="V14" t="n">
-        <v>52558.2236</v>
+        <v>30924.924</v>
       </c>
       <c r="W14" t="n">
         <v>2300</v>
@@ -8149,37 +8477,61 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2510</v>
+        <v>2300</v>
       </c>
       <c r="AA14" t="n">
         <v>3600</v>
       </c>
       <c r="AB14" t="n">
-        <v>1430</v>
+        <v>1220</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>545495.1873999999</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>70237.69880880001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38703</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>783825.8862087999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,17 +8590,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>932845.3998892</v>
+        <v>393307.5996992</v>
       </c>
       <c r="U15" t="n">
-        <v>172673.6982792</v>
+        <v>71538.60657599999</v>
       </c>
       <c r="V15" t="n">
-        <v>150961.3</v>
+        <v>53332.2236</v>
       </c>
       <c r="W15" t="n">
         <v>2300</v>
@@ -8260,37 +8612,61 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2790</v>
+        <v>2440</v>
       </c>
       <c r="AA15" t="n">
         <v>3600</v>
       </c>
       <c r="AB15" t="n">
-        <v>1710</v>
+        <v>1360</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>843864.0797</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>104545.7410736</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111419.8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1207318.7707736</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,17 +8725,17 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4903528.8442792</v>
+        <v>393307.5996992</v>
       </c>
       <c r="U16" t="n">
-        <v>896388.2638157</v>
+        <v>71538.60657599999</v>
       </c>
       <c r="V16" t="n">
-        <v>751093.1102</v>
+        <v>53332.2236</v>
       </c>
       <c r="W16" t="n">
         <v>2300</v>
@@ -8371,37 +8747,61 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>3350</v>
+        <v>2510</v>
       </c>
       <c r="AA16" t="n">
         <v>3600</v>
       </c>
       <c r="AB16" t="n">
-        <v>2270</v>
+        <v>1430</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>843864.0797</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>104545.7410736</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111601.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1207500.7707736</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,17 +8860,17 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8011533.9862436</v>
+        <v>970340.3998892</v>
       </c>
       <c r="U17" t="n">
-        <v>1465495.8325403</v>
+        <v>179530.6982792</v>
       </c>
       <c r="V17" t="n">
-        <v>1222408.9864</v>
+        <v>157594.3</v>
       </c>
       <c r="W17" t="n">
         <v>2300</v>
@@ -8482,70 +8882,94 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>4260</v>
+        <v>2790</v>
       </c>
       <c r="AA17" t="n">
         <v>3600</v>
       </c>
       <c r="AB17" t="n">
-        <v>3180</v>
+        <v>1710</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1944319.89674</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>230025.54627568</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685602</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3129913.94301568</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>227184.0931496</v>
+        <v>5038405.8442792</v>
       </c>
       <c r="U18" t="n">
-        <v>41862.75542760001</v>
+        <v>920116.2638157</v>
       </c>
       <c r="V18" t="n">
-        <v>28009.8248</v>
+        <v>772933.1102</v>
       </c>
       <c r="W18" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>1470</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1270</v>
+        <v>3350</v>
       </c>
       <c r="AA18" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="AB18" t="n">
-        <v>670</v>
+        <v>2270</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11827272.57594</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1419083.12231753</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15847673.94825753</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,73 +9116,97 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>300619.5453104</v>
+        <v>8321251.9862436</v>
       </c>
       <c r="U19" t="n">
-        <v>54924.210419</v>
+        <v>1519528.8325403</v>
       </c>
       <c r="V19" t="n">
-        <v>37982.3456</v>
+        <v>1271640.9864</v>
       </c>
       <c r="W19" t="n">
         <v>2300</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>1470</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2300</v>
+        <v>4260</v>
       </c>
       <c r="AA19" t="n">
         <v>3600</v>
       </c>
       <c r="AB19" t="n">
-        <v>1220</v>
+        <v>3180</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>19186525.78341</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2306607.56916167</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3467427.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26136403.10257167</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>382798.803152</v>
+        <v>216184.0931496</v>
       </c>
       <c r="U20" t="n">
-        <v>69193.82250770001</v>
+        <v>39922.75542760001</v>
       </c>
       <c r="V20" t="n">
-        <v>52212.02800000001</v>
+        <v>27258.8248</v>
       </c>
       <c r="W20" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X20" t="n">
-        <v>1220</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2370</v>
+        <v>970</v>
       </c>
       <c r="AA20" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB20" t="n">
-        <v>1290</v>
+        <v>520</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>570813.61292</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2433.535280040001</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32753.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>653543.8482000401</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>434988.0849184</v>
+        <v>277519.5453104</v>
       </c>
       <c r="U21" t="n">
-        <v>81996.599248</v>
+        <v>50850.210419</v>
       </c>
       <c r="V21" t="n">
-        <v>60366.6902</v>
+        <v>36405.5456</v>
       </c>
       <c r="W21" t="n">
-        <v>2300</v>
+        <v>1250</v>
       </c>
       <c r="X21" t="n">
-        <v>1470</v>
+        <v>700</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2510</v>
+        <v>1490</v>
       </c>
       <c r="AA21" t="n">
-        <v>3600</v>
+        <v>2250</v>
       </c>
       <c r="AB21" t="n">
-        <v>1430</v>
+        <v>815</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>680459.8331</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>31276.1013015</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65507.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>845540.6344015</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,73 +9521,97 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>499946.16948</v>
+        <v>382798.803152</v>
       </c>
       <c r="U22" t="n">
-        <v>98965.3985004</v>
+        <v>69193.82250770001</v>
       </c>
       <c r="V22" t="n">
-        <v>74496.2605</v>
+        <v>52212.02800000001</v>
       </c>
       <c r="W22" t="n">
         <v>2300</v>
       </c>
       <c r="X22" t="n">
-        <v>1470</v>
+        <v>1220</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2790</v>
+        <v>2370</v>
       </c>
       <c r="AA22" t="n">
         <v>3600</v>
       </c>
       <c r="AB22" t="n">
-        <v>1710</v>
+        <v>1290</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>867707.79079</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>72846.49866513001</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95389.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1173595.33945513</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,17 +9670,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>632907.9276884</v>
+        <v>434988.0849184</v>
       </c>
       <c r="U23" t="n">
-        <v>133719.9209209</v>
+        <v>81996.599248</v>
       </c>
       <c r="V23" t="n">
-        <v>103075.3806</v>
+        <v>60366.6902</v>
       </c>
       <c r="W23" t="n">
         <v>2300</v>
@@ -9148,37 +9692,331 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>3350</v>
+        <v>2510</v>
       </c>
       <c r="AA23" t="n">
         <v>3600</v>
       </c>
       <c r="AB23" t="n">
-        <v>2270</v>
+        <v>1430</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>948830.54385</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>116603.4445296</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>151723</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1361789.5883796</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>49</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>499946.16948</v>
+      </c>
+      <c r="U24" t="n">
+        <v>98965.3985004</v>
+      </c>
+      <c r="V24" t="n">
+        <v>74496.2605</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1710</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1076613.704155</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>130931.51285276</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>260818.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1625805.41700776</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>49</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>632907.9276884</v>
+      </c>
+      <c r="U25" t="n">
+        <v>133719.9209209</v>
+      </c>
+      <c r="V25" t="n">
+        <v>103075.3806</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2270</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1341387.40068</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>160933.91981261</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2164359.32049261</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/49.xlsx
+++ b/opm_hero_property/heroes/49.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,38984;31,9015;41,2703</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,27046;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,4055</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4742;31,1082;41,388</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,3247;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,582</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>38984.652</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>9015.391</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2703.3732</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>27046.173</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>4055.0598</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>4742.4825</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1082.389</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>388.17</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>3247.167</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>582.255</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,38988;31,9016;41,2703</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,27050;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,4055</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4746;31,1083;41,388</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,3251;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,582</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>38988.684</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>9016.738499999999</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2703.852</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>27050.2155</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>4055.778</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>4746.5145</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1083.7365</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>388.6488</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>3251.2095</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>582.9732</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,41809;31,9949;41,3168</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,29847;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,4753</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5050;31,1184;41,440</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,3552;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,660</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>41809.2370605</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>9949.33191945</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3168.71283924</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>29847.99575835</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>4753.06925886</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>5050.26810225</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1184.15800965</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>440.01434772</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>3552.474028950001</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>660.02152158</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,45005;31,11005;41,3695</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,33016;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,5543</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5394;31,1297;41,498</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,3893;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,747</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>45005.3619624</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>11005.36568285</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3695.4566154</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>33016.09704855</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>5543.1849231</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>5394.020284800001</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1297.75113545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>498.1609962000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>3893.25340635</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>747.2414943</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,54179;31,11134;41,4416</t>
+          <t>21,48761;31,12247;41,4315</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,1;31,31686;41,1</t>
+          <t>21,0;31,36743;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,7404</t>
+          <t>21,0;31,0;41,6472</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6441;31,1301;41,579</t>
+          <t>21,5797;31,1431;41,566</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,1;31,3702;41,1</t>
+          <t>21,0;31,4293;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,972</t>
+          <t>21,0;31,0;41,849</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>54179</v>
+        <v>48761.3748321</v>
       </c>
       <c r="O6" t="n">
-        <v>11134</v>
+        <v>12247.94938675</v>
       </c>
       <c r="P6" t="n">
-        <v>4416</v>
+        <v>4315.093196940001</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31686</v>
+        <v>36743.84816025</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>7404</v>
+        <v>6472.63979541</v>
       </c>
       <c r="W6" t="n">
-        <v>6441</v>
+        <v>5797.72476045</v>
       </c>
       <c r="X6" t="n">
-        <v>1301</v>
+        <v>1431.30115975</v>
       </c>
       <c r="Y6" t="n">
-        <v>579</v>
+        <v>566.5476958199999</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3702</v>
+        <v>4293.903479250001</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>972</v>
+        <v>849.8215437299999</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,60948;31,12435;41,5741</t>
+          <t>21,54853;31,13679;41,5609</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,1;31,35388;41,1</t>
+          <t>21,0;31,41037;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,9626</t>
+          <t>21,0;31,0;41,8414</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7176;31,1442;41,726</t>
+          <t>21,6458;31,1586;41,710</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,1;31,4105;41,1</t>
+          <t>21,0;31,4760;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1218</t>
+          <t>21,0;31,0;41,1065</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>60948</v>
+        <v>54853.4555919</v>
       </c>
       <c r="O7" t="n">
-        <v>12435</v>
+        <v>13679.16203115</v>
       </c>
       <c r="P7" t="n">
-        <v>5741</v>
+        <v>5609.994951420001</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>35388</v>
+        <v>41037.48609345</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>9626</v>
+        <v>8414.992427130001</v>
       </c>
       <c r="W7" t="n">
-        <v>7176</v>
+        <v>6458.99743755</v>
       </c>
       <c r="X7" t="n">
-        <v>1442</v>
+        <v>1586.88708255</v>
       </c>
       <c r="Y7" t="n">
-        <v>726</v>
+        <v>710.33041926</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>4105</v>
+        <v>4760.661247649999</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1218</v>
+        <v>1065.49562889</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,69701;31,13905;41,7573</t>
+          <t>21,62731;31,15296;41,7400</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,1;31,39572;41,1</t>
+          <t>21,0;31,45888;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,12698</t>
+          <t>21,0;31,0;41,11100</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8123;31,1601;41,929</t>
+          <t>21,7310;31,1761;41,908</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,1;31,4557;41,1</t>
+          <t>21,0;31,5285;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1559</t>
+          <t>21,0;31,0;41,1363</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>69701</v>
+        <v>62731.7099955</v>
       </c>
       <c r="O8" t="n">
-        <v>13905</v>
+        <v>15296.19311605</v>
       </c>
       <c r="P8" t="n">
-        <v>7573</v>
+        <v>7400.30220126</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39572</v>
+        <v>45888.57934815001</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>12698</v>
+        <v>11100.45330189</v>
       </c>
       <c r="W8" t="n">
-        <v>8123</v>
+        <v>7310.75865975</v>
       </c>
       <c r="X8" t="n">
-        <v>1601</v>
+        <v>1761.69840385</v>
       </c>
       <c r="Y8" t="n">
-        <v>929</v>
+        <v>908.70394878</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>4557</v>
+        <v>5285.09521155</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1559</v>
+        <v>1363.05592317</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,80954;31,15600;41,10039</t>
+          <t>21,72859;31,17160;41,9809</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,1;31,44395;41,1</t>
+          <t>21,0;31,51480;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,16833</t>
+          <t>21,0;31,0;41,14714</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9335;31,1783;41,1202</t>
+          <t>21,8401;31,1962;41,1175</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,1;31,5076;41,1</t>
+          <t>21,0;31,5886;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,2016</t>
+          <t>21,0;31,0;41,1762</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>80954</v>
+        <v>72859.1539032</v>
       </c>
       <c r="O9" t="n">
-        <v>15600</v>
+        <v>17160.2996719</v>
       </c>
       <c r="P9" t="n">
-        <v>10039</v>
+        <v>9809.869832640001</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44395</v>
+        <v>51480.8990157</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>16833</v>
+        <v>14714.80474896</v>
       </c>
       <c r="W9" t="n">
-        <v>9335</v>
+        <v>8401.6940364</v>
       </c>
       <c r="X9" t="n">
-        <v>1783</v>
+        <v>1962.2544403</v>
       </c>
       <c r="Y9" t="n">
-        <v>1202</v>
+        <v>1175.08797792</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>5076</v>
+        <v>5886.763320900001</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>2016</v>
+        <v>1762.63196688</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,89388;31,16503;41,12093</t>
+          <t>21,80449;31,18154;41,11816</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,1;31,46965;41,1</t>
+          <t>21,0;31,54462;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,20276</t>
+          <t>21,0;31,0;41,17725</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10243;31,1880;41,1429</t>
+          <t>21,9219;31,2069;41,1396</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,1;31,5352;41,1</t>
+          <t>21,0;31,6207;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,2397</t>
+          <t>21,0;31,0;41,2095</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>89388</v>
+        <v>80449.96252860001</v>
       </c>
       <c r="O10" t="n">
-        <v>16503</v>
+        <v>18154.0346218</v>
       </c>
       <c r="P10" t="n">
-        <v>12093</v>
+        <v>11816.75377404</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46965</v>
+        <v>54462.10386540001</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>20276</v>
+        <v>17725.13066106</v>
       </c>
       <c r="W10" t="n">
-        <v>10243</v>
+        <v>9219.401534699999</v>
       </c>
       <c r="X10" t="n">
-        <v>1880</v>
+        <v>2069.0797666</v>
       </c>
       <c r="Y10" t="n">
-        <v>1429</v>
+        <v>1396.95025212</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>5352</v>
+        <v>6207.2392998</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>2397</v>
+        <v>2095.42537818</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,99671;31,17577;41,14614</t>
+          <t>21,89704;31,19335;41,14280</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,1;31,50021;41,1</t>
+          <t>21,0;31,58005;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,24504</t>
+          <t>21,0;31,0;41,21420</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11349;31,1996;41,1708</t>
+          <t>21,10214;31,2195;41,1669</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,1;31,5680;41,1</t>
+          <t>21,0;31,6587;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,2863</t>
+          <t>21,0;31,0;41,2503</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>99671</v>
+        <v>89704.76038019999</v>
       </c>
       <c r="O11" t="n">
-        <v>17577</v>
+        <v>19335.13029525</v>
       </c>
       <c r="P11" t="n">
-        <v>14614</v>
+        <v>14280.42458448</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>50021</v>
+        <v>58005.39088575001</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>24504</v>
+        <v>21420.63687672</v>
       </c>
       <c r="W11" t="n">
-        <v>11349</v>
+        <v>10214.9881029</v>
       </c>
       <c r="X11" t="n">
-        <v>1996</v>
+        <v>2195.87947425</v>
       </c>
       <c r="Y11" t="n">
-        <v>1708</v>
+        <v>1669.04971344</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>5680</v>
+        <v>6587.63842275</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>2863</v>
+        <v>2503.57457016</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,118623;31,19836;41,19101</t>
+          <t>21,106761;31,21819;41,18664</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,1;31,56449;41,1</t>
+          <t>21,0;31,65459;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,32027</t>
+          <t>21,0;31,0;41,27997</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13386;31,2238;41,2203</t>
+          <t>21,12047;31,2462;41,2152</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,1;31,6370;41,1</t>
+          <t>21,0;31,7387;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,3694</t>
+          <t>21,0;31,0;41,3229</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>118623</v>
+        <v>106761.307338</v>
       </c>
       <c r="O12" t="n">
-        <v>19836</v>
+        <v>21819.79720305</v>
       </c>
       <c r="P12" t="n">
-        <v>19101</v>
+        <v>18664.8402888</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56449</v>
+        <v>65459.39160915001</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>32027</v>
+        <v>27997.2604332</v>
       </c>
       <c r="W12" t="n">
-        <v>13386</v>
+        <v>12047.466501</v>
       </c>
       <c r="X12" t="n">
-        <v>2238</v>
+        <v>2462.47902285</v>
       </c>
       <c r="Y12" t="n">
-        <v>2203</v>
+        <v>2152.8110664</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>6370</v>
+        <v>7387.437068550001</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>3694</v>
+        <v>3229.2165996</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,121558;31,20289;41,19737</t>
+          <t>21,109402;31,22318;41,19286</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,1;31,57739;41,1</t>
+          <t>21,0;31,66955;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,33093</t>
+          <t>21,0;31,0;41,28929</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13711;31,2288;41,2274</t>
+          <t>21,12340;31,2517;41,2222</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,1;31,6513;41,1</t>
+          <t>21,0;31,7553;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,3814</t>
+          <t>21,0;31,0;41,3334</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>121558</v>
+        <v>109402.9417278</v>
       </c>
       <c r="O13" t="n">
-        <v>20289</v>
+        <v>22318.493428</v>
       </c>
       <c r="P13" t="n">
-        <v>19737</v>
+        <v>19286.11847034</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57739</v>
+        <v>66955.480284</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>33093</v>
+        <v>28929.17770551</v>
       </c>
       <c r="W13" t="n">
-        <v>13711</v>
+        <v>12340.0880631</v>
       </c>
       <c r="X13" t="n">
-        <v>2288</v>
+        <v>2517.720436</v>
       </c>
       <c r="Y13" t="n">
-        <v>2274</v>
+        <v>2222.83936602</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>6513</v>
+        <v>7553.161308000001</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>3814</v>
+        <v>3334.25904903</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,124493;31,20743;41,20373</t>
+          <t>21,112044;31,22818;41,19907</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,1;31,59032;41,1</t>
+          <t>21,0;31,68454;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,34159</t>
+          <t>21,0;31,0;41,29861</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,14036;31,2339;41,2346</t>
+          <t>21,12632;31,2573;41,2292</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,1;31,6656;41,1</t>
+          <t>21,0;31,7719;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,3934</t>
+          <t>21,0;31,0;41,3439</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>124493</v>
+        <v>112044.5761176</v>
       </c>
       <c r="O14" t="n">
-        <v>20743</v>
+        <v>22818.077436</v>
       </c>
       <c r="P14" t="n">
-        <v>20373</v>
+        <v>19907.39665188</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>59032</v>
+        <v>68454.23230800001</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34159</v>
+        <v>29861.09497782</v>
       </c>
       <c r="W14" t="n">
-        <v>14036</v>
+        <v>12632.7096252</v>
       </c>
       <c r="X14" t="n">
-        <v>2339</v>
+        <v>2573.056332</v>
       </c>
       <c r="Y14" t="n">
-        <v>2346</v>
+        <v>2292.86766564</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>6656</v>
+        <v>7719.168996</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>3934</v>
+        <v>3439.30149846</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,127424;31,21197;41,21009</t>
+          <t>21,114682;31,23316;41,20528</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,1;31,60322;41,1</t>
+          <t>21,0;31,69950;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,35226</t>
+          <t>21,0;31,0;41,30793</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14360;31,2389;41,2418</t>
+          <t>21,12924;31,2628;41,2362</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,1;31,6799;41,1</t>
+          <t>21,0;31,7884;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,4054</t>
+          <t>21,0;31,0;41,3544</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>127424</v>
+        <v>114682.3469631</v>
       </c>
       <c r="O15" t="n">
-        <v>21197</v>
+        <v>23316.77366095</v>
       </c>
       <c r="P15" t="n">
-        <v>21009</v>
+        <v>20528.93484576</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60322</v>
+        <v>69950.32098285001</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>35226</v>
+        <v>30793.40226864</v>
       </c>
       <c r="W15" t="n">
-        <v>14360</v>
+        <v>12924.89185995</v>
       </c>
       <c r="X15" t="n">
-        <v>2389</v>
+        <v>2628.29774515</v>
       </c>
       <c r="Y15" t="n">
-        <v>2418</v>
+        <v>2362.92445728</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>6799</v>
+        <v>7884.89323545</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>4054</v>
+        <v>3544.38668592</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,130359;31,21650;41,21644</t>
+          <t>21,117323;31,23815;41,21150</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,1;31,61612;41,1</t>
+          <t>21,0;31,71446;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,36292</t>
+          <t>21,0;31,0;41,31725</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14686;31,2439;41,2489</t>
+          <t>21,13217;31,2683;41,2432</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,1;31,6942;41,1</t>
+          <t>21,0;31,8050;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,4174</t>
+          <t>21,0;31,0;41,3649</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>130359</v>
+        <v>117323.9813529</v>
       </c>
       <c r="O16" t="n">
-        <v>21650</v>
+        <v>23815.4698859</v>
       </c>
       <c r="P16" t="n">
-        <v>21644</v>
+        <v>21150.2130273</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>61612</v>
+        <v>71446.4096577</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>36292</v>
+        <v>31725.31954095</v>
       </c>
       <c r="W16" t="n">
-        <v>14686</v>
+        <v>13217.51342205</v>
       </c>
       <c r="X16" t="n">
-        <v>2439</v>
+        <v>2683.5391583</v>
       </c>
       <c r="Y16" t="n">
-        <v>2489</v>
+        <v>2432.9527569</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>6942</v>
+        <v>8050.6174749</v>
       </c>
       <c r="AB16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>4174</v>
+        <v>3649.42913535</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,133295;31,22103;41,22280</t>
+          <t>21,119965;31,24314;41,21771</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,1;31,62902;41,1</t>
+          <t>21,0;31,72942;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,37358</t>
+          <t>21,0;31,0;41,32657</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,15011;31,2489;41,2561</t>
+          <t>21,13510;31,2738;41,2502</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,1;31,7085;41,1</t>
+          <t>21,0;31,8216;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,4294</t>
+          <t>21,0;31,0;41,3754</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>133295</v>
+        <v>119965.6157427</v>
       </c>
       <c r="O17" t="n">
-        <v>22103</v>
+        <v>24314.16611085</v>
       </c>
       <c r="P17" t="n">
-        <v>22280</v>
+        <v>21771.49120884</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>62902</v>
+        <v>72942.49833254999</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>37358</v>
+        <v>32657.23681325999</v>
       </c>
       <c r="W17" t="n">
-        <v>15011</v>
+        <v>13510.13498415</v>
       </c>
       <c r="X17" t="n">
-        <v>2489</v>
+        <v>2738.78057145</v>
       </c>
       <c r="Y17" t="n">
-        <v>2561</v>
+        <v>2502.98105652</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>7085</v>
+        <v>8216.341714349999</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>4294</v>
+        <v>3754.47158478</v>
       </c>
     </row>
   </sheetData>
@@ -5107,10 +5107,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6720</v>
+        <v>6718</v>
       </c>
       <c r="C2" t="n">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D2" t="n">
         <v>1220</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3200</v>
+        <v>3202</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -5161,13 +5161,13 @@
         <v>58</v>
       </c>
       <c r="T2" t="n">
-        <v>4503</v>
+        <v>3411</v>
       </c>
       <c r="U2" t="n">
-        <v>961</v>
+        <v>763</v>
       </c>
       <c r="V2" t="n">
-        <v>711</v>
+        <v>479</v>
       </c>
       <c r="W2" t="n">
         <v>31</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>2261</v>
+        <v>1794</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>1247</v>
+        <v>841</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -5212,36 +5212,36 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,6720;31,1360;41,1220;22,36;32,44;42,39</t>
+          <t>21,6718;31,1361;41,1220;22,36;32,44;42,39</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,0;31,3200;41,0;22,0;32,132;42,0</t>
+          <t>21,0;31,3202;41,0;22,0;32,132;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,2140;22,0;32,0;42,58</t>
+          <t>21,0;31,0;41,2139;22,0;32,0;42,58</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,4503;31,961;41,711;22,31;32,38;42,34</t>
+          <t>21,3411;31,763;41,479;22,31;32,38;42,34</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,0;31,2261;41,0;22,0;32,115;42,0</t>
+          <t>21,0;31,1794;41,0;22,0;32,115;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,1247;22,0;32,0;42,51</t>
+          <t>21,0;31,0;41,841;22,0;32,0;42,49</t>
         </is>
       </c>
     </row>
@@ -5250,10 +5250,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13440</v>
+        <v>13436</v>
       </c>
       <c r="C3" t="n">
-        <v>2720</v>
+        <v>2723</v>
       </c>
       <c r="D3" t="n">
         <v>2440</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6400</v>
+        <v>6404</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -5304,13 +5304,13 @@
         <v>117</v>
       </c>
       <c r="T3" t="n">
-        <v>4717</v>
+        <v>3941</v>
       </c>
       <c r="U3" t="n">
-        <v>1007</v>
+        <v>846</v>
       </c>
       <c r="V3" t="n">
-        <v>751</v>
+        <v>599</v>
       </c>
       <c r="W3" t="n">
         <v>63</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>2368</v>
+        <v>1989</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1318</v>
+        <v>1052</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -5359,32 +5359,32 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,13440;31,2720;41,2440;22,72;32,88;42,78</t>
+          <t>21,13436;31,2723;41,2440;22,72;32,88;42,78</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,0;31,6400;41,0;22,0;32,264;42,0</t>
+          <t>21,0;31,6404;41,0;22,0;32,264;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,4280;22,0;32,0;42,117</t>
+          <t>21,0;31,0;41,4279;22,0;32,0;42,117</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,4717;31,1007;41,751;22,63;32,77;42,68</t>
+          <t>21,3941;31,846;41,599;22,63;32,77;42,68</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,0;31,2368;41,0;22,0;32,231;42,0</t>
+          <t>21,0;31,1989;41,0;22,0;32,231;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,1318;22,0;32,0;42,102</t>
+          <t>21,0;31,0;41,1052;22,0;32,0;42,102</t>
         </is>
       </c>
     </row>
@@ -5393,10 +5393,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20160</v>
+        <v>20154</v>
       </c>
       <c r="C4" t="n">
-        <v>4080</v>
+        <v>4084</v>
       </c>
       <c r="D4" t="n">
         <v>3660</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9600</v>
+        <v>9606</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6420</v>
+        <v>6418</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -5447,13 +5447,13 @@
         <v>176</v>
       </c>
       <c r="T4" t="n">
-        <v>4941</v>
+        <v>4844</v>
       </c>
       <c r="U4" t="n">
-        <v>1054</v>
+        <v>990</v>
       </c>
       <c r="V4" t="n">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="W4" t="n">
         <v>94</v>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>2481</v>
+        <v>2329</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1392</v>
+        <v>1420</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -5498,36 +5498,36 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,20160;31,4080;41,3660;22,108;32,132;42,117</t>
+          <t>21,20154;31,4084;41,3660;22,108;32,132;42,117</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,0;31,9600;41,0;22,0;32,396;42,0</t>
+          <t>21,0;31,9606;41,0;22,0;32,396;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,6420;22,0;32,0;42,176</t>
+          <t>21,0;31,0;41,6418;22,0;32,0;42,176</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,4941;31,1054;41,794;22,94;32,115;42,102</t>
+          <t>21,4844;31,990;41,809;22,94;32,115;42,102</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,0;31,2481;41,0;22,0;32,346;42,0</t>
+          <t>21,0;31,2329;41,0;22,0;32,346;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,1392;22,0;32,0;42,154</t>
+          <t>21,0;31,0;41,1420;22,0;32,0;42,152</t>
         </is>
       </c>
     </row>
@@ -5536,10 +5536,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26880</v>
+        <v>26872</v>
       </c>
       <c r="C5" t="n">
-        <v>5440</v>
+        <v>5446</v>
       </c>
       <c r="D5" t="n">
         <v>4880</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12800</v>
+        <v>12809</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>8560</v>
+        <v>8558</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -5590,13 +5590,13 @@
         <v>234</v>
       </c>
       <c r="T5" t="n">
-        <v>5293</v>
+        <v>5196</v>
       </c>
       <c r="U5" t="n">
-        <v>1128</v>
+        <v>1060</v>
       </c>
       <c r="V5" t="n">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="W5" t="n">
         <v>126</v>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>2655</v>
+        <v>2493</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1514</v>
+        <v>1547</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -5645,32 +5645,32 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,26880;31,5440;41,4880;22,144;32,176;42,156</t>
+          <t>21,26872;31,5446;41,4880;22,144;32,176;42,156</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,0;31,12800;41,0;22,0;32,528;42,0</t>
+          <t>21,0;31,12809;41,0;22,0;32,528;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,8560;22,0;32,0;42,234</t>
+          <t>21,0;31,0;41,8558;22,0;32,0;42,234</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5293;31,1128;41,863;22,126;32,154;42,136</t>
+          <t>21,5196;31,1060;41,882;22,126;32,154;42,136</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,0;31,2655;41,0;22,0;32,462;42,0</t>
+          <t>21,0;31,2493;41,0;22,0;32,462;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,1514;22,0;32,0;42,205</t>
+          <t>21,0;31,0;41,1547;22,0;32,0;42,205</t>
         </is>
       </c>
     </row>
@@ -5679,10 +5679,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33600</v>
+        <v>33590</v>
       </c>
       <c r="C6" t="n">
-        <v>6800</v>
+        <v>6807</v>
       </c>
       <c r="D6" t="n">
         <v>6100</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16000</v>
+        <v>16011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>10700</v>
+        <v>10697</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -5733,13 +5733,13 @@
         <v>293</v>
       </c>
       <c r="T6" t="n">
-        <v>5545</v>
+        <v>5572</v>
       </c>
       <c r="U6" t="n">
-        <v>1182</v>
+        <v>1134</v>
       </c>
       <c r="V6" t="n">
-        <v>911</v>
+        <v>960</v>
       </c>
       <c r="W6" t="n">
         <v>157</v>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>2781</v>
+        <v>2669</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1598</v>
+        <v>1685</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -5784,36 +5784,36 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,33600;31,6800;41,6100;22,180;32,220;42,195</t>
+          <t>21,33590;31,6807;41,6100;22,180;32,220;42,195</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,0;31,16000;41,0;22,0;32,660;42,0</t>
+          <t>21,0;31,16011;41,0;22,0;32,660;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,10700;22,0;32,0;42,293</t>
+          <t>21,0;31,0;41,10697;22,0;32,0;42,293</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,5545;31,1182;41,911;22,157;32,192;42,171</t>
+          <t>21,5572;31,1134;41,960;22,157;32,192;42,171</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,0;31,2781;41,0;22,0;32,577;42,0</t>
+          <t>21,0;31,2669;41,0;22,0;32,577;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,1598;22,0;32,0;42,256</t>
+          <t>21,0;31,0;41,1685;22,0;32,0;42,255</t>
         </is>
       </c>
     </row>
@@ -5822,10 +5822,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40320</v>
+        <v>40308</v>
       </c>
       <c r="C7" t="n">
-        <v>8160</v>
+        <v>8169</v>
       </c>
       <c r="D7" t="n">
         <v>7320</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>19200</v>
+        <v>19213</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>12840</v>
+        <v>12837</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -5876,13 +5876,13 @@
         <v>352</v>
       </c>
       <c r="T7" t="n">
-        <v>5809</v>
+        <v>5971</v>
       </c>
       <c r="U7" t="n">
-        <v>1238</v>
+        <v>1214</v>
       </c>
       <c r="V7" t="n">
-        <v>962</v>
+        <v>1044</v>
       </c>
       <c r="W7" t="n">
         <v>189</v>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>2913</v>
+        <v>2856</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>1687</v>
+        <v>1832</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -5931,32 +5931,32 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,40320;31,8160;41,7320;22,216;32,264;42,234</t>
+          <t>21,40308;31,8169;41,7320;22,216;32,264;42,234</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,0;31,19200;41,0;22,0;32,792;42,0</t>
+          <t>21,0;31,19213;41,0;22,0;32,792;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,12840;22,0;32,0;42,352</t>
+          <t>21,0;31,0;41,12837;22,0;32,0;42,352</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,5809;31,1238;41,962;22,189;32,231;42,205</t>
+          <t>21,5971;31,1214;41,1044;22,189;32,231;42,205</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,0;31,2913;41,0;22,0;32,693;42,0</t>
+          <t>21,0;31,2856;41,0;22,0;32,693;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,1687;22,0;32,0;42,308</t>
+          <t>21,0;31,0;41,1832;22,0;32,0;42,308</t>
         </is>
       </c>
     </row>
@@ -5965,10 +5965,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>47040</v>
+        <v>47026</v>
       </c>
       <c r="C8" t="n">
-        <v>9520</v>
+        <v>9530</v>
       </c>
       <c r="D8" t="n">
         <v>8540</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>22400</v>
+        <v>22416</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>14980</v>
+        <v>14976</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -6019,13 +6019,13 @@
         <v>410</v>
       </c>
       <c r="T8" t="n">
-        <v>6085</v>
+        <v>6396</v>
       </c>
       <c r="U8" t="n">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="V8" t="n">
-        <v>1015</v>
+        <v>1134</v>
       </c>
       <c r="W8" t="n">
         <v>220</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>1780</v>
+        <v>1990</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -6070,36 +6070,36 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,47040;31,9520;41,8540;22,252;32,308;42,273</t>
+          <t>21,47026;31,9530;41,8540;22,252;32,308;42,273</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,0;31,22400;41,0;22,0;32,924;42,0</t>
+          <t>21,0;31,22416;41,0;22,0;32,924;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,14980;22,0;32,0;42,410</t>
+          <t>21,0;31,0;41,14976;22,0;32,0;42,410</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6085;31,1297;41,1015;22,220;32,269;42,239</t>
+          <t>21,6396;31,1298;41,1134;22,220;32,269;42,239</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,0;31,3052;41,0;22,0;32,808;42,0</t>
+          <t>21,0;31,3054;41,0;22,0;32,808;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,1780;22,0;32,0;42,359</t>
+          <t>21,0;31,0;41,1990;22,0;32,0;42,357</t>
         </is>
       </c>
     </row>
@@ -6108,10 +6108,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53760</v>
+        <v>53744</v>
       </c>
       <c r="C9" t="n">
-        <v>10880</v>
+        <v>10892</v>
       </c>
       <c r="D9" t="n">
         <v>9760</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25600</v>
+        <v>25618</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>17120</v>
+        <v>17116</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -6159,16 +6159,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="T9" t="n">
-        <v>6617</v>
+        <v>7109</v>
       </c>
       <c r="U9" t="n">
-        <v>1411</v>
+        <v>1441</v>
       </c>
       <c r="V9" t="n">
-        <v>1119</v>
+        <v>1286</v>
       </c>
       <c r="W9" t="n">
         <v>252</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>3319</v>
+        <v>3389</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1962</v>
+        <v>2256</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -6217,32 +6217,32 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,53760;31,10880;41,9760;22,283;32,346;42,308</t>
+          <t>21,53744;31,10892;41,9760;22,283;32,346;42,308</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,0;31,25600;41,0;22,0;32,1039;42,0</t>
+          <t>21,0;31,25618;41,0;22,0;32,1039;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,17120;22,0;32,0;42,462</t>
+          <t>21,0;31,0;41,17116;22,0;32,0;42,460</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,6617;31,1411;41,1119;22,252;32,308;42,273</t>
+          <t>21,7109;31,1441;41,1286;22,252;32,308;42,273</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,0;31,3319;41,0;22,0;32,924;42,0</t>
+          <t>21,0;31,3389;41,0;22,0;32,924;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,1962;22,0;32,0;42,410</t>
+          <t>21,0;31,0;41,2256;22,0;32,0;42,410</t>
         </is>
       </c>
     </row>
@@ -6251,10 +6251,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>60480</v>
+        <v>60462</v>
       </c>
       <c r="C10" t="n">
-        <v>12240</v>
+        <v>12253</v>
       </c>
       <c r="D10" t="n">
         <v>10980</v>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>28800</v>
+        <v>28820</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>19260</v>
+        <v>19255</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -6302,16 +6302,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="T10" t="n">
-        <v>7165</v>
+        <v>7697</v>
       </c>
       <c r="U10" t="n">
-        <v>1528</v>
+        <v>1560</v>
       </c>
       <c r="V10" t="n">
-        <v>1226</v>
+        <v>1410</v>
       </c>
       <c r="W10" t="n">
         <v>283</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>3593</v>
+        <v>3670</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>2151</v>
+        <v>2474</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
@@ -6356,36 +6356,36 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,60480;31,12240;41,10980;22,301;32,368;42,327</t>
+          <t>21,60462;31,12253;41,10980;22,301;32,368;42,327</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,0;31,28800;41,0;22,0;32,1105;42,0</t>
+          <t>21,0;31,28820;41,0;22,0;32,1105;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,19260;22,0;32,0;42,491</t>
+          <t>21,0;31,0;41,19255;22,0;32,0;42,489</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7165;31,1528;41,1226;22,283;32,346;42,308</t>
+          <t>21,7697;31,1560;41,1410;22,283;32,346;42,308</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,0;31,3593;41,0;22,0;32,1039;42,0</t>
+          <t>21,0;31,3670;41,0;22,0;32,1039;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,2151;22,0;32,0;42,462</t>
+          <t>21,0;31,0;41,2474;22,0;32,0;42,460</t>
         </is>
       </c>
     </row>
@@ -6394,10 +6394,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>67200</v>
+        <v>67180</v>
       </c>
       <c r="C11" t="n">
-        <v>13600</v>
+        <v>13615</v>
       </c>
       <c r="D11" t="n">
         <v>12200</v>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32000</v>
+        <v>32023</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>21400</v>
+        <v>21395</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -6448,13 +6448,13 @@
         <v>513</v>
       </c>
       <c r="T11" t="n">
-        <v>7724</v>
+        <v>8299</v>
       </c>
       <c r="U11" t="n">
-        <v>1647</v>
+        <v>1682</v>
       </c>
       <c r="V11" t="n">
-        <v>1337</v>
+        <v>1538</v>
       </c>
       <c r="W11" t="n">
         <v>315</v>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>3874</v>
+        <v>3956</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>2345</v>
+        <v>2698</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -6503,32 +6503,32 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,67200;31,13600;41,12200;22,315;32,385;42,342</t>
+          <t>21,67180;31,13615;41,12200;22,315;32,385;42,342</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,0;31,32000;41,0;22,0;32,1155;42,0</t>
+          <t>21,0;31,32023;41,0;22,0;32,1155;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,21400;22,0;32,0;42,513</t>
+          <t>21,0;31,0;41,21395;22,0;32,0;42,513</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,7724;31,1647;41,1337;22,315;32,385;42,342</t>
+          <t>21,8299;31,1682;41,1538;22,315;32,385;42,342</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,0;31,3874;41,0;22,0;32,1155;42,0</t>
+          <t>21,0;31,3956;41,0;22,0;32,1155;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,2345;22,0;32,0;42,513</t>
+          <t>21,0;31,0;41,2698;22,0;32,0;42,513</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5038405.8442792</v>
+        <v>5225551.4600219</v>
       </c>
       <c r="U2" t="n">
-        <v>920116.2638157</v>
+        <v>958045.42992655</v>
       </c>
       <c r="V2" t="n">
-        <v>772933.1102</v>
+        <v>806904.60140884</v>
       </c>
       <c r="W2" t="n">
         <v>2300</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,104965;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,54052</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11827272.57594</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>644192.936358395</v>
       </c>
       <c r="AS2" t="n">
-        <v>15847673.94825753</v>
+        <v>16491866.88461592</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>632907.9276884</v>
+        <v>654717.06267255</v>
       </c>
       <c r="U3" t="n">
-        <v>133719.9209209</v>
+        <v>138140.70149235</v>
       </c>
       <c r="V3" t="n">
-        <v>103075.3806</v>
+        <v>107116.36165652</v>
       </c>
       <c r="W3" t="n">
         <v>2300</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,12172;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,6452</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1341387.40068</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>75548.16200214499</v>
       </c>
       <c r="AS3" t="n">
-        <v>2164359.32049261</v>
+        <v>2239907.482494755</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>56428.5416</v>
+        <v>63291.40754976</v>
       </c>
       <c r="U7" t="n">
-        <v>10226.9</v>
+        <v>11620.26156</v>
       </c>
       <c r="V7" t="n">
-        <v>6215.468</v>
+        <v>7454.139125199999</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,3299;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,2166</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>119342.2926</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>23599.41968366</v>
       </c>
       <c r="AS7" t="n">
-        <v>167887.5926</v>
+        <v>191487.01228366</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>56589.5037664</v>
+        <v>70315.23566592</v>
       </c>
       <c r="U8" t="n">
-        <v>10278.3843</v>
+        <v>13066.10742</v>
       </c>
       <c r="V8" t="n">
-        <v>6215.468</v>
+        <v>8692.8102504</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,6598;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,4335</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>119342.2926</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>47205.73936732</v>
       </c>
       <c r="AS8" t="n">
-        <v>168403.7964364</v>
+        <v>215609.53580372</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>241387.786608</v>
+        <v>248769.2077552</v>
       </c>
       <c r="U10" t="n">
-        <v>41228.246472</v>
+        <v>42724.8610544</v>
       </c>
       <c r="V10" t="n">
-        <v>30924.924</v>
+        <v>32245.1154836</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,3608;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,2288</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>545495.1873999999</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>25299.16279646</v>
       </c>
       <c r="AS10" t="n">
-        <v>715996.0002648</v>
+        <v>741295.16306126</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>248759.132688</v>
+        <v>285666.238424</v>
       </c>
       <c r="U11" t="n">
-        <v>43385.751192</v>
+        <v>50870.824104</v>
       </c>
       <c r="V11" t="n">
-        <v>30924.924</v>
+        <v>37525.881418</v>
       </c>
       <c r="W11" t="n">
         <v>2300</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,18045;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,11449</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>545495.1873999999</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>126509.6139823</v>
       </c>
       <c r="AS11" t="n">
-        <v>738666.6289128</v>
+        <v>865176.2428950999</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>256130.478768</v>
+        <v>293037.584504</v>
       </c>
       <c r="U12" t="n">
-        <v>45543.255912</v>
+        <v>53028.328824</v>
       </c>
       <c r="V12" t="n">
-        <v>30924.924</v>
+        <v>37525.881418</v>
       </c>
       <c r="W12" t="n">
         <v>2300</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,18045;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,11449</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>545495.1873999999</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>126509.6139823</v>
       </c>
       <c r="AS12" t="n">
-        <v>761337.2575607999</v>
+        <v>887846.8715431</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>263501.824848</v>
+        <v>336486.759886</v>
       </c>
       <c r="U13" t="n">
-        <v>47700.760632</v>
+        <v>62502.388228</v>
       </c>
       <c r="V13" t="n">
-        <v>30924.924</v>
+        <v>44003.5262408</v>
       </c>
       <c r="W13" t="n">
         <v>2300</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,35582;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,22712</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>545495.1873999999</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>250318.128335</v>
       </c>
       <c r="AS13" t="n">
-        <v>784007.8862087999</v>
+        <v>1034326.0145438</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>263501.824848</v>
+        <v>300408.930584</v>
       </c>
       <c r="U14" t="n">
-        <v>47700.760632</v>
+        <v>55185.83354399999</v>
       </c>
       <c r="V14" t="n">
-        <v>30924.924</v>
+        <v>37525.881418</v>
       </c>
       <c r="W14" t="n">
         <v>2300</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,18045;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,11449</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>545495.1873999999</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>126509.6139823</v>
       </c>
       <c r="AS14" t="n">
-        <v>783825.8862087999</v>
+        <v>910335.5001910998</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>393307.5996992</v>
+        <v>439589.37563648</v>
       </c>
       <c r="U15" t="n">
-        <v>71538.60657599999</v>
+        <v>80924.44931519999</v>
       </c>
       <c r="V15" t="n">
-        <v>53332.2236</v>
+        <v>61663.25391224</v>
       </c>
       <c r="W15" t="n">
         <v>2300</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,22863;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,14357</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>843864.0797</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>158947.51513314</v>
       </c>
       <c r="AS15" t="n">
-        <v>1207318.7707736</v>
+        <v>1366266.28590674</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>393307.5996992</v>
+        <v>447303.00495936</v>
       </c>
       <c r="U16" t="n">
-        <v>71538.60657599999</v>
+        <v>82488.25643839999</v>
       </c>
       <c r="V16" t="n">
-        <v>53332.2236</v>
+        <v>63051.75896428</v>
       </c>
       <c r="W16" t="n">
         <v>2300</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,26674;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,16747</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>843864.0797</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>185435.31765533</v>
       </c>
       <c r="AS16" t="n">
-        <v>1207500.7707736</v>
+        <v>1392936.08842893</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>970340.3998892</v>
+        <v>1041456.48077609</v>
       </c>
       <c r="U17" t="n">
-        <v>179530.6982792</v>
+        <v>193950.63875616</v>
       </c>
       <c r="V17" t="n">
-        <v>157594.3</v>
+        <v>170707.9734</v>
       </c>
       <c r="W17" t="n">
         <v>2300</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,36212;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,22124</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1944319.89674</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>246017.292227914</v>
       </c>
       <c r="AS17" t="n">
-        <v>3129913.94301568</v>
+        <v>3375931.235243594</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5038405.8442792</v>
+        <v>5225551.4600219</v>
       </c>
       <c r="U18" t="n">
-        <v>920116.2638157</v>
+        <v>958045.42992655</v>
       </c>
       <c r="V18" t="n">
-        <v>772933.1102</v>
+        <v>806904.60140884</v>
       </c>
       <c r="W18" t="n">
         <v>2300</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,104965;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,54052</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11827272.57594</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>644192.936358395</v>
       </c>
       <c r="AS18" t="n">
-        <v>15847673.94825753</v>
+        <v>16491866.88461592</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8321251.9862436</v>
+        <v>8508397.6019863</v>
       </c>
       <c r="U19" t="n">
-        <v>1519528.8325403</v>
+        <v>1557457.99865115</v>
       </c>
       <c r="V19" t="n">
-        <v>1271640.9864</v>
+        <v>1305612.47760884</v>
       </c>
       <c r="W19" t="n">
         <v>2300</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,104965;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,54052</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>19186525.78341</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>644192.936358395</v>
       </c>
       <c r="AS19" t="n">
-        <v>26136403.10257167</v>
+        <v>26780596.03893007</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>216184.0931496</v>
+        <v>220182.66385554</v>
       </c>
       <c r="U20" t="n">
-        <v>39922.75542760001</v>
+        <v>40817.56582544001</v>
       </c>
       <c r="V20" t="n">
-        <v>27258.8248</v>
+        <v>27821.26360432</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,2192;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,961</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>570813.61292</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>13406.785575876</v>
       </c>
       <c r="AS20" t="n">
-        <v>653543.8482000401</v>
+        <v>666950.6337759161</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>277519.5453104</v>
+        <v>282876.50377348</v>
       </c>
       <c r="U21" t="n">
-        <v>50850.210419</v>
+        <v>52000.1867609</v>
       </c>
       <c r="V21" t="n">
-        <v>36405.5456</v>
+        <v>37220.35411008</v>
       </c>
       <c r="W21" t="n">
         <v>1250</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,2900;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,1375</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>680459.8331</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17976.94415515</v>
       </c>
       <c r="AS21" t="n">
-        <v>845540.6344015</v>
+        <v>863517.57855665</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>382798.803152</v>
+        <v>392828.9630316</v>
       </c>
       <c r="U22" t="n">
-        <v>69193.82250770001</v>
+        <v>71239.62703442002</v>
       </c>
       <c r="V22" t="n">
-        <v>52212.02800000001</v>
+        <v>53931.1008988</v>
       </c>
       <c r="W22" t="n">
         <v>2300</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,5409;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,2816</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>867707.79079</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>34030.880282068</v>
       </c>
       <c r="AS22" t="n">
-        <v>1173595.33945513</v>
+        <v>1207626.219737198</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>434988.0849184</v>
+        <v>448178.6613136</v>
       </c>
       <c r="U23" t="n">
-        <v>81996.599248</v>
+        <v>84679.1999216</v>
       </c>
       <c r="V23" t="n">
-        <v>60366.6902</v>
+        <v>62681.15637578</v>
       </c>
       <c r="W23" t="n">
         <v>2300</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,7212;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,3753</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>948830.54385</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>45008.701553775</v>
       </c>
       <c r="AS23" t="n">
-        <v>1361789.5883796</v>
+        <v>1406798.289933375</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>499946.16948</v>
+        <v>515823.428084</v>
       </c>
       <c r="U24" t="n">
-        <v>98965.3985004</v>
+        <v>102186.73463336</v>
       </c>
       <c r="V24" t="n">
-        <v>74496.2605</v>
+        <v>77344.29717165</v>
       </c>
       <c r="W24" t="n">
         <v>2300</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,8730;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,4601</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1076613.704155</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>54480.6887834115</v>
       </c>
       <c r="AS24" t="n">
-        <v>1625805.41700776</v>
+        <v>1680286.105791172</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>632907.9276884</v>
+        <v>654717.06267255</v>
       </c>
       <c r="U25" t="n">
-        <v>133719.9209209</v>
+        <v>138140.70149235</v>
       </c>
       <c r="V25" t="n">
-        <v>103075.3806</v>
+        <v>107116.36165652</v>
       </c>
       <c r="W25" t="n">
         <v>2300</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,12172;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,6452</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1341387.40068</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>75548.16200214499</v>
       </c>
       <c r="AS25" t="n">
-        <v>2164359.32049261</v>
+        <v>2239907.482494755</v>
       </c>
     </row>
   </sheetData>
